--- a/문서/properties.xlsx
+++ b/문서/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfff89d4400cc07b/Dev/Workspace/baemin03/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{E7CD65E6-EE06-428E-A27E-12CBB8A260E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB2B80D8-CED9-45A6-9567-68537B5B00A9}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{E7CD65E6-EE06-428E-A27E-12CBB8A260E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2976CF96-AAA4-4643-BF55-985DC0CCE20A}"/>
   <bookViews>
     <workbookView xWindow="1788" yWindow="120" windowWidth="19872" windowHeight="12636" xr2:uid="{8EAA1838-A415-483C-AFAA-38018EABE06A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>/ch19/list.do=ch19.action.ListAction</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>NewOrderList.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopPage.jsp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -315,9 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -327,11 +328,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82885AB-3735-4D68-81F1-D4E3A2A1BBDC}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -677,30 +681,30 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f>CONCATENATE(F3,"=",J3)</f>
         <v>/admin/Main.do=com.mvc.action.admin.MainAction.java</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C51" si="0">IF(D3="","",IF(NOT(D2=D3),1,C2+1))</f>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C52" si="0">IF(D3="","",IF(NOT(D2=D3),1,C2+1))</f>
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -709,18 +713,18 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(D3),"/",TRIM(E3)),".jsp",".do",1),"//","",1)</f>
         <v>/admin/Main.do</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="str">
-        <f>SUBSTITUTE(E3,".jsp","Action",1)</f>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H48" si="1">SUBSTITUTE(E3,".jsp","Action",1)</f>
         <v>MainAction</v>
       </c>
-      <c r="I3" s="6" t="str">
+      <c r="I3" s="4" t="str">
         <f>IF(H3="","",CONCATENATE(H3,".java"))</f>
         <v>MainAction.java</v>
       </c>
@@ -731,10 +735,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A67" si="1">CONCATENATE(F4,"=",J4)</f>
+        <f t="shared" ref="A4:A68" si="2">CONCATENATE(F4,"=",J4)</f>
         <v>/admin/MemberList.do=com.mvc.action.admin.MemberListAction.java</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -744,32 +748,32 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="str">
-        <f t="shared" ref="F4:F67" si="2">SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(D4),"/",TRIM(E4)),".jsp",".do",1),"//","",1)</f>
+      <c r="F4" s="4" t="str">
+        <f t="shared" ref="F4:F68" si="3">SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(D4),"/",TRIM(E4)),".jsp",".do",1),"//","",1)</f>
         <v>/admin/MemberList.do</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="str">
-        <f>SUBSTITUTE(E4,".jsp","Action",1)</f>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>MemberListAction</v>
       </c>
-      <c r="I4" s="6" t="str">
-        <f t="shared" ref="I4:I67" si="3">IF(H4="","",CONCATENATE(H4,".java"))</f>
+      <c r="I4" s="4" t="str">
+        <f t="shared" ref="I4:I68" si="4">IF(H4="","",CONCATENATE(H4,".java"))</f>
         <v>MemberListAction.java</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J67" si="4">IF(I4="","",SUBSTITUTE(CONCATENATE(G4,".",I4),"..",   ".",1))</f>
+        <f t="shared" ref="J4:J68" si="5">IF(I4="","",SUBSTITUTE(CONCATENATE(G4,".",I4),"..",   ".",1))</f>
         <v>com.mvc.action.admin.MemberListAction.java</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/MemberView.do=com.mvc.action.admin.MemberViewAction.java</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -779,32 +783,32 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/MemberView.do</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="str">
-        <f>SUBSTITUTE(E5,".jsp","Action",1)</f>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>MemberViewAction</v>
       </c>
-      <c r="I5" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>MemberViewAction.java</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.MemberViewAction.java</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/NoticeDeletePro.do=com.mvc.action.admin.NoticeDeleteProAction.java</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -814,32 +818,32 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/NoticeDeletePro.do</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="2" t="str">
-        <f>SUBSTITUTE(E6,".jsp","Action",1)</f>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>NoticeDeleteProAction</v>
       </c>
-      <c r="I6" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>NoticeDeleteProAction.java</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.NoticeDeleteProAction.java</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/NoticeInputForm.do=com.mvc.action.admin.NoticeInputFormAction.java</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -849,32 +853,32 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/NoticeInputForm.do</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="str">
-        <f>SUBSTITUTE(E7,".jsp","Action",1)</f>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>NoticeInputFormAction</v>
       </c>
-      <c r="I7" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>NoticeInputFormAction.java</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.NoticeInputFormAction.java</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/NoticeInputPro.do=com.mvc.action.admin.NoticeInputProAction.java</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -884,32 +888,32 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/NoticeInputPro.do</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="2" t="str">
-        <f>SUBSTITUTE(E8,".jsp","Action",1)</f>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>NoticeInputProAction</v>
       </c>
-      <c r="I8" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>NoticeInputProAction.java</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.NoticeInputProAction.java</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/NoticeList.do=com.mvc.action.admin.NoticeListAction.java</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -919,32 +923,32 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/NoticeList.do</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="2" t="str">
-        <f>SUBSTITUTE(E9,".jsp","Action",1)</f>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>NoticeListAction</v>
       </c>
-      <c r="I9" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>NoticeListAction.java</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.NoticeListAction.java</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/NoticeUpdateForm.do=com.mvc.action.admin.NoticeUpdateFormAction.java</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -954,32 +958,32 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/NoticeUpdateForm.do</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="2" t="str">
-        <f>SUBSTITUTE(E10,".jsp","Action",1)</f>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>NoticeUpdateFormAction</v>
       </c>
-      <c r="I10" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>NoticeUpdateFormAction.java</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.NoticeUpdateFormAction.java</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/NoticeUpdatePro.do=com.mvc.action.admin.NoticeUpdateProAction.java</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -989,32 +993,32 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/NoticeUpdatePro.do</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="2" t="str">
-        <f>SUBSTITUTE(E11,".jsp","Action",1)</f>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>NoticeUpdateProAction</v>
       </c>
-      <c r="I11" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>NoticeUpdateProAction.java</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.NoticeUpdateProAction.java</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/NoticeView.do=com.mvc.action.admin.NoticeViewAction.java</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1024,32 +1028,32 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/NoticeView.do</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="2" t="str">
-        <f>SUBSTITUTE(E12,".jsp","Action",1)</f>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>NoticeViewAction</v>
       </c>
-      <c r="I12" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>NoticeViewAction.java</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.NoticeViewAction.java</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/ShopList.do=com.mvc.action.admin.ShopListAction.java</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1059,32 +1063,32 @@
       <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/ShopList.do</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="2" t="str">
-        <f>SUBSTITUTE(E13,".jsp","Action",1)</f>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>ShopListAction</v>
       </c>
-      <c r="I13" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>ShopListAction.java</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.ShopListAction.java</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/admin/ShopView.do=com.mvc.action.admin.ShopViewAction.java</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1094,1688 +1098,1723 @@
       <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>/admin/ShopView.do</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="2" t="str">
-        <f>SUBSTITUTE(E14,".jsp","Action",1)</f>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>ShopViewAction</v>
       </c>
-      <c r="I14" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>ShopViewAction.java</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>com.mvc.action.admin.ShopViewAction.java</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v>=</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f>SUBSTITUTE(E15,".jsp","Action",1)</f>
-        <v/>
-      </c>
-      <c r="I15" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>/admin/ShopPage.do=com.mvc.action.admin.ShopPageAction.java</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/admin/ShopPage.do</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ShopPageAction</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>ShopPageAction.java</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.admin.ShopPageAction.java</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
-        <v>/baemin/Main.do=com.mvc.action.baemin.MainAction.java</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/baemin/Main.do</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2" t="str">
-        <f>SUBSTITUTE(E16,".jsp","Action",1)</f>
-        <v>MainAction</v>
-      </c>
-      <c r="I16" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>MainAction.java</v>
+        <f t="shared" si="2"/>
+        <v>=</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.baemin.MainAction.java</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
-        <v>/baemin/Order.do=com.mvc.action.baemin.OrderAction.java</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>/baemin/Main.do=com.mvc.action.baemin.MainAction.java</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/baemin/Order.do</v>
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/Main.do</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="2" t="str">
-        <f>SUBSTITUTE(E17,".jsp","Action",1)</f>
-        <v>OrderAction</v>
-      </c>
-      <c r="I17" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>OrderAction.java</v>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MainAction</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>MainAction.java</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.baemin.OrderAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.baemin.MainAction.java</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
-        <v>/baemin/OrderDone.do=com.mvc.action.baemin.OrderDoneAction.java</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>/baemin/Order.do=com.mvc.action.baemin.OrderAction.java</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/baemin/OrderDone.do</v>
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/Order.do</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="2" t="str">
-        <f>SUBSTITUTE(E18,".jsp","Action",1)</f>
-        <v>OrderDoneAction</v>
-      </c>
-      <c r="I18" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>OrderDoneAction.java</v>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>OrderAction</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OrderAction.java</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.baemin.OrderDoneAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.baemin.OrderAction.java</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
-        <v>/baemin/OrderPro.do=com.mvc.action.baemin.OrderProAction.java</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>/baemin/OrderDone.do=com.mvc.action.baemin.OrderDoneAction.java</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/baemin/OrderPro.do</v>
+        <v>23</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/OrderDone.do</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="2" t="str">
-        <f>SUBSTITUTE(E19,".jsp","Action",1)</f>
-        <v>OrderProAction</v>
-      </c>
-      <c r="I19" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>OrderProAction.java</v>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>OrderDoneAction</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OrderDoneAction.java</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.baemin.OrderProAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.baemin.OrderDoneAction.java</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
-        <v>/baemin/ShopList.do=com.mvc.action.baemin.ShopListAction.java</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>/baemin/OrderPro.do=com.mvc.action.baemin.OrderProAction.java</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/baemin/ShopList.do</v>
+        <v>24</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/OrderPro.do</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="2" t="str">
-        <f>SUBSTITUTE(E20,".jsp","Action",1)</f>
-        <v>ShopListAction</v>
-      </c>
-      <c r="I20" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>ShopListAction.java</v>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>OrderProAction</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OrderProAction.java</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.baemin.ShopListAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.baemin.OrderProAction.java</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
-        <f t="shared" si="1"/>
-        <v>/baemin/ShopListContent.do=com.mvc.action.baemin.ShopListContentAction.java</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>/baemin/ShopList.do=com.mvc.action.baemin.ShopListAction.java</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/baemin/ShopListContent.do</v>
+        <v>18</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/ShopList.do</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="2" t="str">
-        <f>SUBSTITUTE(E21,".jsp","Action",1)</f>
-        <v>ShopListContentAction</v>
-      </c>
-      <c r="I21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>ShopListContentAction.java</v>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ShopListAction</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>ShopListAction.java</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.baemin.ShopListContentAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.baemin.ShopListAction.java</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
-        <f t="shared" si="1"/>
-        <v>/baemin/Cart.do=com.mvc.action.baemin.CartAction.java</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>/baemin/ShopListContent.do=com.mvc.action.baemin.ShopListContentAction.java</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/baemin/Cart.do</v>
+        <v>25</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/ShopListContent.do</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="2" t="str">
-        <f>SUBSTITUTE(E22,".jsp","Action",1)</f>
-        <v>CartAction</v>
-      </c>
-      <c r="I22" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>CartAction.java</v>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ShopListContentAction</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>ShopListContentAction.java</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.baemin.CartAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.baemin.ShopListContentAction.java</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
-        <f t="shared" si="1"/>
-        <v>=</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H23" s="2" t="str">
-        <f>SUBSTITUTE(E23,".jsp","Action",1)</f>
-        <v/>
-      </c>
-      <c r="I23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>/baemin/Cart.do=com.mvc.action.baemin.CartAction.java</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/Cart.do</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CartAction</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CartAction.java</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.baemin.CartAction.java</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberClient/idCheck.do=com.mvc.action.memberclient.idCheckAction.java</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberClient/idCheck.do</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="2" t="str">
-        <f>SUBSTITUTE(E24,".jsp","Action",1)</f>
-        <v>idCheckAction</v>
-      </c>
-      <c r="I24" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>idCheckAction.java</v>
+        <f t="shared" si="2"/>
+        <v>=</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.memberclient.idCheckAction.java</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberClient/joinClientPro.do=com.mvc.action.memberclient.joinClientProAction.java</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>/memberClient/idCheck.do=com.mvc.action.memberclient.idCheckAction.java</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberClient/joinClientPro.do</v>
+        <v>26</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberClient/idCheck.do</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="2" t="str">
-        <f>SUBSTITUTE(E25,".jsp","Action",1)</f>
-        <v>joinClientProAction</v>
-      </c>
-      <c r="I25" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>joinClientProAction.java</v>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>idCheckAction</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>idCheckAction.java</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.memberclient.joinClientProAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.memberclient.idCheckAction.java</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberClient/JoinFormClient.do=com.mvc.action.memberclient.JoinFormClientAction.java</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>/memberClient/joinClientPro.do=com.mvc.action.memberclient.joinClientProAction.java</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberClient/JoinFormClient.do</v>
+        <v>27</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberClient/joinClientPro.do</v>
       </c>
       <c r="G26" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="2" t="str">
-        <f>SUBSTITUTE(E26,".jsp","Action",1)</f>
-        <v>JoinFormClientAction</v>
-      </c>
-      <c r="I26" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>JoinFormClientAction.java</v>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>joinClientProAction</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>joinClientProAction.java</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.memberclient.JoinFormClientAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.memberclient.joinClientProAction.java</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberClient/loginClientPro.do=com.mvc.action.memberclient.loginClientProAction.java</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>/memberClient/JoinFormClient.do=com.mvc.action.memberclient.JoinFormClientAction.java</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberClient/loginClientPro.do</v>
+        <v>28</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberClient/JoinFormClient.do</v>
       </c>
       <c r="G27" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="2" t="str">
-        <f>SUBSTITUTE(E27,".jsp","Action",1)</f>
-        <v>loginClientProAction</v>
-      </c>
-      <c r="I27" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>loginClientProAction.java</v>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>JoinFormClientAction</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>JoinFormClientAction.java</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.memberclient.loginClientProAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.memberclient.JoinFormClientAction.java</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberClient/MyPageClient.do=com.mvc.action.memberclient.MyPageClientAction.java</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>/memberClient/loginClientPro.do=com.mvc.action.memberclient.loginClientProAction.java</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberClient/MyPageClient.do</v>
+        <v>29</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberClient/loginClientPro.do</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="2" t="str">
-        <f>SUBSTITUTE(E28,".jsp","Action",1)</f>
-        <v>MyPageClientAction</v>
-      </c>
-      <c r="I28" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>MyPageClientAction.java</v>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>loginClientProAction</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>loginClientProAction.java</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.memberclient.MyPageClientAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.memberclient.loginClientProAction.java</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
-        <f t="shared" si="1"/>
-        <v>=</v>
-      </c>
-      <c r="C29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H29" s="2" t="str">
-        <f>SUBSTITUTE(E29,".jsp","Action",1)</f>
-        <v/>
-      </c>
-      <c r="I29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>/memberClient/MyPageClient.do=com.mvc.action.memberclient.MyPageClientAction.java</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberClient/MyPageClient.do</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MyPageClientAction</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>MyPageClientAction.java</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.memberclient.MyPageClientAction.java</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberShop/idCheck.do=com.mvc.action.membershop.idCheckAction.java</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberShop/idCheck.do</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="2" t="str">
-        <f>SUBSTITUTE(E30,".jsp","Action",1)</f>
-        <v>idCheckAction</v>
-      </c>
-      <c r="I30" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>idCheckAction.java</v>
+        <f t="shared" si="2"/>
+        <v>=</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.membershop.idCheckAction.java</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberShop/joinShopPro.do=com.mvc.action.membershop.joinShopProAction.java</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>/memberShop/idCheck.do=com.mvc.action.membershop.idCheckAction.java</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberShop/joinShopPro.do</v>
+        <v>26</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberShop/idCheck.do</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="2" t="str">
-        <f>SUBSTITUTE(E31,".jsp","Action",1)</f>
-        <v>joinShopProAction</v>
-      </c>
-      <c r="I31" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>joinShopProAction.java</v>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>idCheckAction</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>idCheckAction.java</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.membershop.joinShopProAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.membershop.idCheckAction.java</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberShop/JoinFormShop.do=com.mvc.action.membershop.JoinFormShopAction.java</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>/memberShop/joinShopPro.do=com.mvc.action.membershop.joinShopProAction.java</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberShop/JoinFormShop.do</v>
+        <v>31</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberShop/joinShopPro.do</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="2" t="str">
-        <f>SUBSTITUTE(E32,".jsp","Action",1)</f>
-        <v>JoinFormShopAction</v>
-      </c>
-      <c r="I32" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>JoinFormShopAction.java</v>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>joinShopProAction</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>joinShopProAction.java</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.membershop.JoinFormShopAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.membershop.joinShopProAction.java</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberShop/loginShopPro.do=com.mvc.action.membershop.loginShopProAction.java</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>/memberShop/JoinFormShop.do=com.mvc.action.membershop.JoinFormShopAction.java</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberShop/loginShopPro.do</v>
+        <v>32</v>
+      </c>
+      <c r="F33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberShop/JoinFormShop.do</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="2" t="str">
-        <f>SUBSTITUTE(E33,".jsp","Action",1)</f>
-        <v>loginShopProAction</v>
-      </c>
-      <c r="I33" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>loginShopProAction.java</v>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>JoinFormShopAction</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>JoinFormShopAction.java</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.membershop.loginShopProAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.membershop.JoinFormShopAction.java</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
-        <f t="shared" si="1"/>
-        <v>/memberShop/MyPageShop.do=com.mvc.action.membershop.MyPageShopAction.java</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>/memberShop/loginShopPro.do=com.mvc.action.membershop.loginShopProAction.java</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/memberShop/MyPageShop.do</v>
+        <v>33</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberShop/loginShopPro.do</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="2" t="str">
-        <f>SUBSTITUTE(E34,".jsp","Action",1)</f>
-        <v>MyPageShopAction</v>
-      </c>
-      <c r="I34" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>MyPageShopAction.java</v>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>loginShopProAction</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>loginShopProAction.java</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.membershop.MyPageShopAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.membershop.loginShopProAction.java</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
-        <f t="shared" si="1"/>
-        <v>=</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H35" s="2" t="str">
-        <f>SUBSTITUTE(E35,".jsp","Action",1)</f>
-        <v/>
-      </c>
-      <c r="I35" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>/memberShop/MyPageShop.do=com.mvc.action.membershop.MyPageShopAction.java</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/memberShop/MyPageShop.do</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MyPageShopAction</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>MyPageShopAction.java</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.membershop.MyPageShopAction.java</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
-        <f t="shared" si="1"/>
-        <v>/notice/NoticeList.do=com.mvc.action.notice.NoticeListAction.java</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/notice/NoticeList.do</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="2" t="str">
-        <f>SUBSTITUTE(E36,".jsp","Action",1)</f>
-        <v>NoticeListAction</v>
-      </c>
-      <c r="I36" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>NoticeListAction.java</v>
+        <f t="shared" si="2"/>
+        <v>=</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I36" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.notice.NoticeListAction.java</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
-        <f t="shared" si="1"/>
-        <v>/notice/NoticeView.do=com.mvc.action.notice.NoticeViewAction.java</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>/notice/NoticeList.do=com.mvc.action.notice.NoticeListAction.java</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/notice/NoticeView.do</v>
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/notice/NoticeList.do</v>
       </c>
       <c r="G37" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="2" t="str">
-        <f>SUBSTITUTE(E37,".jsp","Action",1)</f>
-        <v>NoticeViewAction</v>
-      </c>
-      <c r="I37" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>NoticeViewAction.java</v>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NoticeListAction</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>NoticeListAction.java</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.notice.NoticeViewAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.notice.NoticeListAction.java</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="str">
-        <f t="shared" si="1"/>
-        <v>=</v>
-      </c>
-      <c r="C38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H38" s="2" t="str">
-        <f>SUBSTITUTE(E38,".jsp","Action",1)</f>
-        <v/>
-      </c>
-      <c r="I38" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>/notice/NoticeView.do=com.mvc.action.notice.NoticeViewAction.java</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/notice/NoticeView.do</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>NoticeViewAction</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>NoticeViewAction.java</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.notice.NoticeViewAction.java</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/BaesongList.do=com.mvc.action.shop.BaesongListAction.java</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/BaesongList.do</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="2" t="str">
-        <f>SUBSTITUTE(E39,".jsp","Action",1)</f>
-        <v>BaesongListAction</v>
-      </c>
-      <c r="I39" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BaesongListAction.java</v>
+        <f t="shared" si="2"/>
+        <v>=</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.BaesongListAction.java</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/BaesongSelect.do=com.mvc.action.shop.BaesongSelectAction.java</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>/shop/BaesongList.do=com.mvc.action.shop.BaesongListAction.java</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/BaesongSelect.do</v>
+        <v>39</v>
+      </c>
+      <c r="F40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/BaesongList.do</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="2" t="str">
-        <f>SUBSTITUTE(E40,".jsp","Action",1)</f>
-        <v>BaesongSelectAction</v>
-      </c>
-      <c r="I40" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BaesongSelectAction.java</v>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BaesongListAction</v>
+      </c>
+      <c r="I40" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>BaesongListAction.java</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.BaesongSelectAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.BaesongListAction.java</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/Business_START.do=com.mvc.action.shop.Business_STARTAction.java</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>/shop/BaesongSelect.do=com.mvc.action.shop.BaesongSelectAction.java</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/Business_START.do</v>
+        <v>41</v>
+      </c>
+      <c r="F41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/BaesongSelect.do</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="2" t="str">
-        <f>SUBSTITUTE(E41,".jsp","Action",1)</f>
-        <v>Business_STARTAction</v>
-      </c>
-      <c r="I41" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Business_STARTAction.java</v>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BaesongSelectAction</v>
+      </c>
+      <c r="I41" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>BaesongSelectAction.java</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.Business_STARTAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.BaesongSelectAction.java</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/Business_END.do=com.mvc.action.shop.Business_ENDAction.java</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>/shop/Business_START.do=com.mvc.action.shop.Business_STARTAction.java</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/Business_END.do</v>
+        <v>42</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/Business_START.do</v>
       </c>
       <c r="G42" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="2" t="str">
-        <f>SUBSTITUTE(E42,".jsp","Action",1)</f>
-        <v>Business_ENDAction</v>
-      </c>
-      <c r="I42" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Business_ENDAction.java</v>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Business_STARTAction</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Business_STARTAction.java</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.Business_ENDAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.Business_STARTAction.java</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/CancelOrderPro.do=com.mvc.action.shop.CancelOrderProAction.java</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>/shop/Business_END.do=com.mvc.action.shop.Business_ENDAction.java</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/CancelOrderPro.do</v>
+        <v>43</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/Business_END.do</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="2" t="str">
-        <f>SUBSTITUTE(E43,".jsp","Action",1)</f>
-        <v>CancelOrderProAction</v>
-      </c>
-      <c r="I43" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>CancelOrderProAction.java</v>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Business_ENDAction</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Business_ENDAction.java</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.CancelOrderProAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.Business_ENDAction.java</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/CheckNewOrder.do=com.mvc.action.shop.CheckNewOrderAction.java</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>/shop/CancelOrderPro.do=com.mvc.action.shop.CancelOrderProAction.java</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/CheckNewOrder.do</v>
+        <v>40</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/CancelOrderPro.do</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="2" t="str">
-        <f>SUBSTITUTE(E44,".jsp","Action",1)</f>
-        <v>CheckNewOrderAction</v>
-      </c>
-      <c r="I44" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>CheckNewOrderAction.java</v>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CancelOrderProAction</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CancelOrderProAction.java</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.CheckNewOrderAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.CancelOrderProAction.java</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/CheckOrderPro.do=com.mvc.action.shop.CheckOrderProAction.java</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>/shop/CheckNewOrder.do=com.mvc.action.shop.CheckNewOrderAction.java</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/CheckOrderPro.do</v>
+        <v>45</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/CheckNewOrder.do</v>
       </c>
       <c r="G45" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="2" t="str">
-        <f>SUBSTITUTE(E45,".jsp","Action",1)</f>
-        <v>CheckOrderProAction</v>
-      </c>
-      <c r="I45" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>CheckOrderProAction.java</v>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CheckNewOrderAction</v>
+      </c>
+      <c r="I45" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CheckNewOrderAction.java</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.CheckOrderProAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.CheckNewOrderAction.java</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/EndList.do=com.mvc.action.shop.EndListAction.java</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>/shop/CheckOrderPro.do=com.mvc.action.shop.CheckOrderProAction.java</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/EndList.do</v>
+        <v>44</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/CheckOrderPro.do</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="2" t="str">
-        <f>SUBSTITUTE(E46,".jsp","Action",1)</f>
-        <v>EndListAction</v>
-      </c>
-      <c r="I46" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>EndListAction.java</v>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CheckOrderProAction</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CheckOrderProAction.java</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.EndListAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.CheckOrderProAction.java</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/Main.do=com.mvc.action.shop.MainAction.java</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>/shop/EndList.do=com.mvc.action.shop.EndListAction.java</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/Main.do</v>
+        <v>46</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/EndList.do</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="2" t="str">
-        <f>SUBSTITUTE(E47,".jsp","Action",1)</f>
-        <v>MainAction</v>
-      </c>
-      <c r="I47" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>MainAction.java</v>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>EndListAction</v>
+      </c>
+      <c r="I47" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>EndListAction.java</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.MainAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.EndListAction.java</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
-        <f t="shared" si="1"/>
-        <v>/shop/NewOrderList.do=com.mvc.action.shop.NewOrderListAction.java</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>/shop/Main.do=com.mvc.action.shop.MainAction.java</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>/shop/NewOrderList.do</v>
+        <v>20</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/Main.do</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="2" t="str">
-        <f t="shared" ref="H48:H68" si="5">SUBSTITUTE(E48,".jsp","Action",1)</f>
-        <v>NewOrderListAction</v>
-      </c>
-      <c r="I48" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>NewOrderListAction.java</v>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MainAction</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>MainAction.java</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="4"/>
-        <v>com.mvc.action.shop.NewOrderListAction.java</v>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.MainAction.java</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
-        <f t="shared" si="1"/>
-        <v>=</v>
-      </c>
-      <c r="C49" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F49" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H49" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I49" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>/shop/NewOrderList.do=com.mvc.action.shop.NewOrderListAction.java</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>/shop/NewOrderList.do</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" ref="H49:H69" si="6">SUBSTITUTE(E49,".jsp","Action",1)</f>
+        <v>NewOrderListAction</v>
+      </c>
+      <c r="I49" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>NewOrderListAction.java</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>com.mvc.action.shop.NewOrderListAction.java</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F50" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H50" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I50" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I50" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F51" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H51" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I51" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I51" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C52" s="3" t="str">
-        <f t="shared" ref="C52:C68" si="6">IF(D52="","",IF(NOT(D51=D52),1,C51+1))</f>
-        <v/>
-      </c>
-      <c r="F52" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H52" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I52" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I52" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" s="2" t="str">
+        <f t="shared" ref="C53:C69" si="7">IF(D53="","",IF(NOT(D52=D53),1,C52+1))</f>
+        <v/>
+      </c>
+      <c r="F53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H53" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F53" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H53" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I53" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I53" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H54" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F54" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H54" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I54" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I54" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F55" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H55" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F55" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H55" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I55" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I55" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H56" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F56" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H56" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I56" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I56" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H57" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F57" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H57" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I57" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I57" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H58" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F58" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H58" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I58" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I58" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H59" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F59" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H59" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I59" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I59" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F60" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H60" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F60" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H60" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I60" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I60" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H61" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F61" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H61" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I61" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I61" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H62" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F62" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H62" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I62" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I62" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H63" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F63" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H63" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I63" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I63" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C64" s="3" t="str">
+      <c r="C64" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H64" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F64" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H64" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I64" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I64" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C65" s="3" t="str">
+      <c r="C65" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H65" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F65" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H65" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I65" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I65" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C66" s="3" t="str">
+      <c r="C66" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H66" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F66" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H66" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I66" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I66" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H67" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F67" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I67" s="6" t="str">
-        <f t="shared" si="3"/>
+      <c r="I67" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" t="str">
-        <f t="shared" ref="A68" si="7">CONCATENATE(F68,"=",J68)</f>
+        <f t="shared" si="2"/>
         <v>=</v>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H68" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F68" s="6" t="str">
-        <f t="shared" ref="F68" si="8">SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(D68),"/",TRIM(E68)),".jsp",".do",1),"//","",1)</f>
-        <v/>
-      </c>
-      <c r="H68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I68" s="6" t="str">
-        <f t="shared" ref="I68" si="9">IF(H68="","",CONCATENATE(H68,".java"))</f>
+      <c r="I68" s="4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J68" t="str">
-        <f t="shared" ref="J68" si="10">IF(I68="","",SUBSTITUTE(CONCATENATE(G68,".",I68),"..",   ".",1))</f>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69" t="str">
+        <f t="shared" ref="A69" si="8">CONCATENATE(F69,"=",J69)</f>
+        <v>=</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F69" s="4" t="str">
+        <f t="shared" ref="F69" si="9">SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(D69),"/",TRIM(E69)),".jsp",".do",1),"//","",1)</f>
+        <v/>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I69" s="4" t="str">
+        <f t="shared" ref="I69" si="10">IF(H69="","",CONCATENATE(H69,".java"))</f>
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" ref="J69" si="11">IF(I69="","",SUBSTITUTE(CONCATENATE(G69,".",I69),"..",   ".",1))</f>
         <v/>
       </c>
     </row>

--- a/문서/properties.xlsx
+++ b/문서/properties.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="93">
   <si>
     <t>/ch19/list.do=ch19.action.ListAction</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -372,22 +372,6 @@
   </si>
   <si>
     <t>com.mvc.action.z_sample.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/baemin/NoticeList.do=com.mvc.action.baemin.NoticeListAction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/baemin/ReviewWritePro.do=com.mvc.action.baemin.ReviewWriteProAction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/baemin/ShopPage.do=com.mvc.action.baemin.ShopPageAction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/baemin/UpdateCartPro.jsp=com.mvc.action.baemin.UpdateCartProAction</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -501,14 +485,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" activeCellId="1" sqref="A21 A19"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,35 +828,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="str">
+      <c r="A3" s="6" t="str">
         <f>IF(   LEN(B3)&lt;3,"",B3)</f>
         <v>/admin/Main.do=com.mvc.action.admin.MainAction</v>
       </c>
@@ -911,12 +895,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="str">
-        <f t="shared" ref="A4:A67" si="3">IF(   LEN(B4)&lt;3,"",B4)</f>
+      <c r="A4" s="6" t="str">
+        <f t="shared" ref="A4:A49" si="3">IF(   LEN(B4)&lt;3,"",B4)</f>
         <v>/admin/MemberList.do=com.mvc.action.admin.MemberListAction</v>
       </c>
       <c r="B4" s="5" t="str">
-        <f t="shared" ref="B4:B103" si="4">CONCATENATE(G4,"=",K4)</f>
+        <f t="shared" ref="B4:B49" si="4">CONCATENATE(G4,"=",K4)</f>
         <v>/admin/MemberList.do=com.mvc.action.admin.MemberListAction</v>
       </c>
       <c r="D4" s="2">
@@ -930,27 +914,27 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G103" si="5">SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(E4),"/",TRIM(F4)),".jsp",".do",1),"//","",1)</f>
+        <f t="shared" ref="G4:G67" si="5">SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(E4),"/",TRIM(F4)),".jsp",".do",1),"//","",1)</f>
         <v>/admin/MemberList.do</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I4:I49" si="6">SUBSTITUTE(F4,".jsp","Action",1)</f>
         <v>MemberListAction</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J4:J49" si="7">IF(I4="","",CONCATENATE(I4))</f>
         <v>MemberListAction</v>
       </c>
       <c r="K4" s="5" t="str">
-        <f t="shared" ref="K4:K67" si="6">IF(J4="","",SUBSTITUTE(CONCATENATE(H4,".",J4),"..",   ".",1))</f>
+        <f t="shared" ref="K4:K49" si="8">IF(J4="","",SUBSTITUTE(CONCATENATE(H4,".",J4),"..",   ".",1))</f>
         <v>com.mvc.action.admin.MemberListAction</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="str">
+      <c r="A5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/MemberView.do=com.mvc.action.admin.MemberViewAction</v>
       </c>
@@ -976,20 +960,20 @@
         <v>8</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>MemberViewAction</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>MemberViewAction</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.MemberViewAction</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="str">
+      <c r="A6" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/NoticeDeletePro.do=com.mvc.action.admin.NoticeDeleteProAction</v>
       </c>
@@ -1015,20 +999,20 @@
         <v>8</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>NoticeDeleteProAction</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>NoticeDeleteProAction</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.NoticeDeleteProAction</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="str">
+      <c r="A7" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/NoticeInputForm.do=com.mvc.action.admin.NoticeInputFormAction</v>
       </c>
@@ -1054,20 +1038,20 @@
         <v>8</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" ref="I7:I74" si="7">SUBSTITUTE(F7,".jsp","Action",1)</f>
+        <f t="shared" si="6"/>
         <v>NoticeInputFormAction</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>NoticeInputFormAction</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.NoticeInputFormAction</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/NoticeInputPro.do=com.mvc.action.admin.NoticeInputProAction</v>
       </c>
@@ -1093,20 +1077,20 @@
         <v>8</v>
       </c>
       <c r="I8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>NoticeInputProAction</v>
+      </c>
+      <c r="J8" s="4" t="str">
         <f t="shared" si="7"/>
         <v>NoticeInputProAction</v>
       </c>
-      <c r="J8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NoticeInputProAction</v>
-      </c>
       <c r="K8" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.NoticeInputProAction</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="str">
+      <c r="A9" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/NoticeList.do=com.mvc.action.admin.NoticeListAction</v>
       </c>
@@ -1132,20 +1116,20 @@
         <v>8</v>
       </c>
       <c r="I9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>NoticeListAction</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <f t="shared" si="7"/>
         <v>NoticeListAction</v>
       </c>
-      <c r="J9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NoticeListAction</v>
-      </c>
       <c r="K9" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.NoticeListAction</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/NoticeUpdateForm.do=com.mvc.action.admin.NoticeUpdateFormAction</v>
       </c>
@@ -1171,20 +1155,20 @@
         <v>8</v>
       </c>
       <c r="I10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>NoticeUpdateFormAction</v>
+      </c>
+      <c r="J10" s="4" t="str">
         <f t="shared" si="7"/>
         <v>NoticeUpdateFormAction</v>
       </c>
-      <c r="J10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NoticeUpdateFormAction</v>
-      </c>
       <c r="K10" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.NoticeUpdateFormAction</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="str">
+      <c r="A11" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/NoticeUpdatePro.do=com.mvc.action.admin.NoticeUpdateProAction</v>
       </c>
@@ -1210,20 +1194,20 @@
         <v>8</v>
       </c>
       <c r="I11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>NoticeUpdateProAction</v>
+      </c>
+      <c r="J11" s="4" t="str">
         <f t="shared" si="7"/>
         <v>NoticeUpdateProAction</v>
       </c>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NoticeUpdateProAction</v>
-      </c>
       <c r="K11" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.NoticeUpdateProAction</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/NoticeView.do=com.mvc.action.admin.NoticeViewAction</v>
       </c>
@@ -1249,20 +1233,20 @@
         <v>8</v>
       </c>
       <c r="I12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>NoticeViewAction</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <f t="shared" si="7"/>
         <v>NoticeViewAction</v>
       </c>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NoticeViewAction</v>
-      </c>
       <c r="K12" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.NoticeViewAction</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
+      <c r="A13" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/ShopList.do=com.mvc.action.admin.ShopListAction</v>
       </c>
@@ -1288,20 +1272,20 @@
         <v>8</v>
       </c>
       <c r="I13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ShopListAction</v>
+      </c>
+      <c r="J13" s="4" t="str">
         <f t="shared" si="7"/>
         <v>ShopListAction</v>
       </c>
-      <c r="J13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>ShopListAction</v>
-      </c>
       <c r="K13" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.ShopListAction</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/admin/ShopView.do=com.mvc.action.admin.ShopViewAction</v>
       </c>
@@ -1327,20 +1311,20 @@
         <v>8</v>
       </c>
       <c r="I14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ShopViewAction</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <f t="shared" si="7"/>
         <v>ShopViewAction</v>
       </c>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>ShopViewAction</v>
-      </c>
       <c r="K14" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.admin.ShopViewAction</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
+      <c r="A15" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1357,20 +1341,20 @@
         <v/>
       </c>
       <c r="I15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J15" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="K15" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1387,20 +1371,20 @@
         <v/>
       </c>
       <c r="I16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J16" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="K16" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
+      <c r="A17" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1417,25 +1401,26 @@
         <v/>
       </c>
       <c r="I17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J17" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="K17" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="5" t="e">
+      <c r="A18" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/NoticeList.do=com.mvc.action.baemin.NoticeListAction</v>
+      </c>
+      <c r="B18" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>/baemin/NoticeList.do=com.mvc.action.baemin.NoticeListAction</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
@@ -1447,30 +1432,34 @@
       <c r="F18" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="4" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(E18),"/",TRIM(#REF!)),".jsp",".do",1),"//","",1)</f>
-        <v>#REF!</v>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>/baemin/NoticeList.do</v>
       </c>
       <c r="H18" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>NoticeListAction</v>
+      </c>
       <c r="J18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>NoticeListAction</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f>IF(J18="","",SUBSTITUTE(CONCATENATE(#REF!,".",J18),"..",   ".",1))</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>com.mvc.action.baemin.NoticeListAction</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="5" t="e">
+      <c r="A19" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/ReviewWritePro.do=com.mvc.action.baemin.ReviewWriteProAction</v>
+      </c>
+      <c r="B19" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>/baemin/ReviewWritePro.do=com.mvc.action.baemin.ReviewWriteProAction</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
@@ -1482,33 +1471,34 @@
       <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="4" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(E19),"/",TRIM(#REF!)),".jsp",".do",1),"//","",1)</f>
-        <v>#REF!</v>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>/baemin/ReviewWritePro.do</v>
       </c>
       <c r="H19" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="1" t="e">
-        <f>SUBSTITUTE(#REF!,".jsp","Action",1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="5" t="e">
-        <f>IF(J19="","",SUBSTITUTE(CONCATENATE(#REF!,".",J19),"..",   ".",1))</f>
-        <v>#REF!</v>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ReviewWriteProAction</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>ReviewWriteProAction</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>com.mvc.action.baemin.ReviewWriteProAction</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="5" t="e">
+      <c r="A20" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/ShopPage.do=com.mvc.action.baemin.ShopPageAction</v>
+      </c>
+      <c r="B20" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>/baemin/ShopPage.do=com.mvc.action.baemin.ShopPageAction</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
@@ -1520,33 +1510,34 @@
       <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="4" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(E20),"/",TRIM(#REF!)),".jsp",".do",1),"//","",1)</f>
-        <v>#REF!</v>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>/baemin/ShopPage.do</v>
       </c>
       <c r="H20" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="1" t="e">
-        <f>SUBSTITUTE(#REF!,".jsp","Action",1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="5" t="e">
-        <f>IF(J20="","",SUBSTITUTE(CONCATENATE(#REF!,".",J20),"..",   ".",1))</f>
-        <v>#REF!</v>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ShopPageAction</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>ShopPageAction</v>
+      </c>
+      <c r="K20" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>com.mvc.action.baemin.ShopPageAction</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="5" t="e">
+      <c r="A21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/baemin/UpdateCartPro.do=com.mvc.action.baemin.UpdateCartProAction</v>
+      </c>
+      <c r="B21" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>/baemin/UpdateCartPro.do=com.mvc.action.baemin.UpdateCartProAction</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
@@ -1558,28 +1549,28 @@
       <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="4" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(E21),"/",TRIM(#REF!)),".jsp",".do",1),"//","",1)</f>
-        <v>#REF!</v>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>/baemin/UpdateCartPro.do</v>
       </c>
       <c r="H21" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="1" t="e">
-        <f>SUBSTITUTE(#REF!,".jsp","Action",1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="5" t="e">
-        <f>IF(J21="","",SUBSTITUTE(CONCATENATE(#REF!,".",J21),"..",   ".",1))</f>
-        <v>#REF!</v>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>UpdateCartProAction</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>UpdateCartProAction</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>com.mvc.action.baemin.UpdateCartProAction</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/Main.do=com.mvc.action.baemin.MainAction</v>
       </c>
@@ -1605,20 +1596,20 @@
         <v>9</v>
       </c>
       <c r="I22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>MainAction</v>
+      </c>
+      <c r="J22" s="4" t="str">
         <f t="shared" si="7"/>
         <v>MainAction</v>
       </c>
-      <c r="J22" s="4" t="str">
-        <f>IF(I22="","",CONCATENATE(I22))</f>
-        <v>MainAction</v>
-      </c>
       <c r="K22" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.baemin.MainAction</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
+      <c r="A23" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/Order.do=com.mvc.action.baemin.OrderAction</v>
       </c>
@@ -1644,20 +1635,20 @@
         <v>9</v>
       </c>
       <c r="I23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OrderAction</v>
+      </c>
+      <c r="J23" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OrderAction</v>
       </c>
-      <c r="J23" s="4" t="str">
-        <f t="shared" ref="J23:J87" si="8">IF(I23="","",CONCATENATE(I23))</f>
-        <v>OrderAction</v>
-      </c>
       <c r="K23" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>com.mvc.action.baemin.OrderAction</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/OrderDone.do=com.mvc.action.baemin.OrderDoneAction</v>
       </c>
@@ -1683,20 +1674,20 @@
         <v>9</v>
       </c>
       <c r="I24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OrderDoneAction</v>
+      </c>
+      <c r="J24" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OrderDoneAction</v>
       </c>
-      <c r="J24" s="4" t="str">
+      <c r="K24" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>OrderDoneAction</v>
-      </c>
-      <c r="K24" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.baemin.OrderDoneAction</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
+      <c r="A25" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/OrderPro.do=com.mvc.action.baemin.OrderProAction</v>
       </c>
@@ -1722,20 +1713,20 @@
         <v>9</v>
       </c>
       <c r="I25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OrderProAction</v>
+      </c>
+      <c r="J25" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OrderProAction</v>
       </c>
-      <c r="J25" s="4" t="str">
+      <c r="K25" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>OrderProAction</v>
-      </c>
-      <c r="K25" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.baemin.OrderProAction</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/ShopList.do=com.mvc.action.baemin.ShopListAction</v>
       </c>
@@ -1761,20 +1752,20 @@
         <v>9</v>
       </c>
       <c r="I26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ShopListAction</v>
+      </c>
+      <c r="J26" s="4" t="str">
         <f t="shared" si="7"/>
         <v>ShopListAction</v>
       </c>
-      <c r="J26" s="4" t="str">
+      <c r="K26" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>ShopListAction</v>
-      </c>
-      <c r="K26" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.baemin.ShopListAction</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="str">
+      <c r="A27" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/ShopListContent.do=com.mvc.action.baemin.ShopListContentAction</v>
       </c>
@@ -1800,20 +1791,20 @@
         <v>9</v>
       </c>
       <c r="I27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ShopListContentAction</v>
+      </c>
+      <c r="J27" s="4" t="str">
         <f t="shared" si="7"/>
         <v>ShopListContentAction</v>
       </c>
-      <c r="J27" s="4" t="str">
+      <c r="K27" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>ShopListContentAction</v>
-      </c>
-      <c r="K27" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.baemin.ShopListContentAction</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/Cart.do=com.mvc.action.baemin.CartAction</v>
       </c>
@@ -1839,20 +1830,20 @@
         <v>9</v>
       </c>
       <c r="I28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CartAction</v>
+      </c>
+      <c r="J28" s="4" t="str">
         <f t="shared" si="7"/>
         <v>CartAction</v>
       </c>
-      <c r="J28" s="4" t="str">
+      <c r="K28" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>CartAction</v>
-      </c>
-      <c r="K28" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.baemin.CartAction</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="str">
+      <c r="A29" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/ShopList.do=com.mvc.action.baemin.ShopListAction</v>
       </c>
@@ -1878,20 +1869,20 @@
         <v>39</v>
       </c>
       <c r="I29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ShopListAction</v>
+      </c>
+      <c r="J29" s="4" t="str">
         <f t="shared" si="7"/>
         <v>ShopListAction</v>
       </c>
-      <c r="J29" s="4" t="str">
+      <c r="K29" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>ShopListAction</v>
-      </c>
-      <c r="K29" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.baemin.ShopListAction</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/AddCartPro.do=com.mvc.action.baemin.AddCartProAction</v>
       </c>
@@ -1917,20 +1908,20 @@
         <v>39</v>
       </c>
       <c r="I30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>AddCartProAction</v>
+      </c>
+      <c r="J30" s="4" t="str">
         <f t="shared" si="7"/>
         <v>AddCartProAction</v>
       </c>
-      <c r="J30" s="4" t="str">
+      <c r="K30" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>AddCartProAction</v>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.baemin.AddCartProAction</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="str">
+      <c r="A31" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/baemin/CartContent.do=com.mvc.action.baemin.CartContentAction</v>
       </c>
@@ -1956,116 +1947,140 @@
         <v>39</v>
       </c>
       <c r="I31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CartContentAction</v>
+      </c>
+      <c r="J31" s="4" t="str">
         <f t="shared" si="7"/>
         <v>CartContentAction</v>
       </c>
-      <c r="J31" s="4" t="str">
+      <c r="K31" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>CartContentAction</v>
-      </c>
-      <c r="K31" s="5" t="str">
+        <v>com.mvc.action.baemin.CartContentAction</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>=</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I32" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>com.mvc.action.baemin.CartContentAction</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J32" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B32" s="5"/>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="I32" s="1" t="str">
-        <f>SUBSTITUTE(F18,".jsp","Action",1)</f>
-        <v>NoticeListAction</v>
-      </c>
-      <c r="J32" s="4" t="str">
+      <c r="B33" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>=</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J33" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K33" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>NoticeListAction</v>
-      </c>
-      <c r="K32" s="5" t="str">
-        <f>IF(J32="","",SUBSTITUTE(CONCATENATE(H18,".",J32),"..",   ".",1))</f>
-        <v>com.mvc.action.baemin.NoticeListAction</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B33" s="5"/>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="I33" s="1" t="str">
-        <f>SUBSTITUTE(F19,".jsp","Action",1)</f>
-        <v>ReviewWriteProAction</v>
-      </c>
-      <c r="J33" s="4" t="str">
+      <c r="B34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>=</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J34" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K34" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>ReviewWriteProAction</v>
-      </c>
-      <c r="K33" s="5" t="str">
-        <f>IF(J33="","",SUBSTITUTE(CONCATENATE(H19,".",J33),"..",   ".",1))</f>
-        <v>com.mvc.action.baemin.ReviewWriteProAction</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B34" s="5"/>
-      <c r="D34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="I34" s="1" t="str">
-        <f>SUBSTITUTE(F20,".jsp","Action",1)</f>
-        <v>ShopPageAction</v>
-      </c>
-      <c r="J34" s="4" t="str">
+      <c r="B35" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>=</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J35" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K35" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>ShopPageAction</v>
-      </c>
-      <c r="K34" s="5" t="str">
-        <f>IF(J34="","",SUBSTITUTE(CONCATENATE(H20,".",J34),"..",   ".",1))</f>
-        <v>com.mvc.action.baemin.ShopPageAction</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="D35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="I35" s="1" t="str">
-        <f>SUBSTITUTE(F21,".jsp","Action",1)</f>
-        <v>UpdateCartProAction</v>
-      </c>
-      <c r="J35" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>UpdateCartProAction</v>
-      </c>
-      <c r="K35" s="5" t="str">
-        <f>IF(J35="","",SUBSTITUTE(CONCATENATE(H21,".",J35),"..",   ".",1))</f>
-        <v>com.mvc.action.baemin.UpdateCartProAction</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="str">
+      <c r="A36" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2082,20 +2097,20 @@
         <v/>
       </c>
       <c r="I36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J36" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J36" s="4" t="str">
+      <c r="K36" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K36" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="str">
+      <c r="A37" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2112,20 +2127,20 @@
         <v/>
       </c>
       <c r="I37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J37" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J37" s="4" t="str">
+      <c r="K37" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K37" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="str">
+      <c r="A38" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/memberClient/AddrChangeForm.do=com.mvc.action.memberclient.AddrChangeFormAction</v>
       </c>
@@ -2151,20 +2166,20 @@
         <v>31</v>
       </c>
       <c r="I38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>AddrChangeFormAction</v>
+      </c>
+      <c r="J38" s="4" t="str">
         <f t="shared" si="7"/>
         <v>AddrChangeFormAction</v>
       </c>
-      <c r="J38" s="4" t="str">
+      <c r="K38" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>AddrChangeFormAction</v>
-      </c>
-      <c r="K38" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.memberclient.AddrChangeFormAction</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="str">
+      <c r="A39" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/memberClient/ChangeAddrPro.do=com.mvc.action.memberclient.ChangeAddrProAction</v>
       </c>
@@ -2190,20 +2205,20 @@
         <v>31</v>
       </c>
       <c r="I39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ChangeAddrProAction</v>
+      </c>
+      <c r="J39" s="4" t="str">
         <f t="shared" si="7"/>
         <v>ChangeAddrProAction</v>
       </c>
-      <c r="J39" s="4" t="str">
+      <c r="K39" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>ChangeAddrProAction</v>
-      </c>
-      <c r="K39" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.memberclient.ChangeAddrProAction</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="str">
+      <c r="A40" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/memberClient/MyPageClient.do=com.mvc.action.memberclient.MyPageClientAction</v>
       </c>
@@ -2229,20 +2244,20 @@
         <v>31</v>
       </c>
       <c r="I40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>MyPageClientAction</v>
+      </c>
+      <c r="J40" s="4" t="str">
         <f t="shared" si="7"/>
         <v>MyPageClientAction</v>
       </c>
-      <c r="J40" s="4" t="str">
+      <c r="K40" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>MyPageClientAction</v>
-      </c>
-      <c r="K40" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.memberclient.MyPageClientAction</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="str">
+      <c r="A41" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/memberClient/UpdateClientForm.do=com.mvc.action.memberclient.UpdateClientFormAction</v>
       </c>
@@ -2268,20 +2283,20 @@
         <v>31</v>
       </c>
       <c r="I41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>UpdateClientFormAction</v>
+      </c>
+      <c r="J41" s="4" t="str">
         <f t="shared" si="7"/>
         <v>UpdateClientFormAction</v>
       </c>
-      <c r="J41" s="4" t="str">
+      <c r="K41" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>UpdateClientFormAction</v>
-      </c>
-      <c r="K41" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.memberclient.UpdateClientFormAction</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="str">
+      <c r="A42" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/memberClient/UpdateClientPro.do=com.mvc.action.memberclient.UpdateClientProAction</v>
       </c>
@@ -2307,20 +2322,20 @@
         <v>31</v>
       </c>
       <c r="I42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>UpdateClientProAction</v>
+      </c>
+      <c r="J42" s="4" t="str">
         <f t="shared" si="7"/>
         <v>UpdateClientProAction</v>
       </c>
-      <c r="J42" s="4" t="str">
+      <c r="K42" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>UpdateClientProAction</v>
-      </c>
-      <c r="K42" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.memberclient.UpdateClientProAction</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="str">
+      <c r="A43" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2337,20 +2352,20 @@
         <v/>
       </c>
       <c r="I43" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J43" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J43" s="4" t="str">
+      <c r="K43" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K43" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="str">
+      <c r="A44" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2367,20 +2382,20 @@
         <v/>
       </c>
       <c r="I44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J44" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J44" s="4" t="str">
+      <c r="K44" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K44" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="str">
+      <c r="A45" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/z_sample/check.do=com.mvc.action.z_sample.checkAction</v>
       </c>
@@ -2406,20 +2421,20 @@
         <v>92</v>
       </c>
       <c r="I45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>checkAction</v>
+      </c>
+      <c r="J45" s="4" t="str">
         <f t="shared" si="7"/>
         <v>checkAction</v>
       </c>
-      <c r="J45" s="4" t="str">
+      <c r="K45" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>checkAction</v>
-      </c>
-      <c r="K45" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.z_sample.checkAction</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="str">
+      <c r="A46" s="6" t="str">
         <f t="shared" si="3"/>
         <v>/z_sample/check2.do=com.mvc.action.z_sample.check2Action</v>
       </c>
@@ -2445,20 +2460,20 @@
         <v>92</v>
       </c>
       <c r="I46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>check2Action</v>
+      </c>
+      <c r="J46" s="4" t="str">
         <f t="shared" si="7"/>
         <v>check2Action</v>
       </c>
-      <c r="J46" s="4" t="str">
+      <c r="K46" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>check2Action</v>
-      </c>
-      <c r="K46" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>com.mvc.action.z_sample.check2Action</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="str">
+      <c r="A47" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2475,20 +2490,20 @@
         <v/>
       </c>
       <c r="I47" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J47" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J47" s="4" t="str">
+      <c r="K47" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K47" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="str">
+      <c r="A48" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2505,20 +2520,20 @@
         <v/>
       </c>
       <c r="I48" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J48" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J48" s="4" t="str">
+      <c r="K48" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K48" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="str">
+      <c r="A49" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2535,34 +2550,37 @@
         <v/>
       </c>
       <c r="I49" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J49" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J49" s="4" t="str">
+      <c r="K49" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K49" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="5"/>
       <c r="D50" s="2"/>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="4"/>
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A51" s="6" t="str">
+        <f t="shared" ref="A4:A67" si="9">IF(   LEN(B51)&lt;3,"",B51)</f>
         <v>/memberShop/MyPageShop.do=com.mvc.action.membershop.MyPageShopAction</v>
       </c>
       <c r="B51" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B4:B103" si="10">CONCATENATE(G51,"=",K51)</f>
         <v>/memberShop/MyPageShop.do=com.mvc.action.membershop.MyPageShopAction</v>
       </c>
       <c r="D51" s="2">
@@ -2583,25 +2601,25 @@
         <v>30</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I7:I74" si="11">SUBSTITUTE(F51,".jsp","Action",1)</f>
         <v>MyPageShopAction</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J23:J87" si="12">IF(I51="","",CONCATENATE(I51))</f>
         <v>MyPageShopAction</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K4:K67" si="13">IF(J51="","",SUBSTITUTE(CONCATENATE(H51,".",J51),"..",   ".",1))</f>
         <v>com.mvc.action.membershop.MyPageShopAction</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A52" s="6" t="str">
+        <f t="shared" si="9"/>
         <v>/memberShop/UpdateShopPro.do=com.mvc.action.membershop.UpdateShopProAction</v>
       </c>
       <c r="B52" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/memberShop/UpdateShopPro.do=com.mvc.action.membershop.UpdateShopProAction</v>
       </c>
       <c r="D52" s="2">
@@ -2622,25 +2640,25 @@
         <v>30</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>UpdateShopProAction</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>UpdateShopProAction</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>com.mvc.action.membershop.UpdateShopProAction</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A53" s="6" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B53" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D53" s="2" t="str">
@@ -2652,25 +2670,25 @@
         <v/>
       </c>
       <c r="I53" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J53" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A54" s="6" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B54" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D54" s="2" t="str">
@@ -2682,25 +2700,25 @@
         <v/>
       </c>
       <c r="I54" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J54" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A55" s="6" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B55" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D55" s="2" t="str">
@@ -2712,25 +2730,25 @@
         <v/>
       </c>
       <c r="I55" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J55" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A56" s="6" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B56" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D56" s="2" t="str">
@@ -2742,25 +2760,25 @@
         <v/>
       </c>
       <c r="I56" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J56" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K56" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A57" s="6" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B57" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D57" s="2" t="str">
@@ -2772,25 +2790,25 @@
         <v/>
       </c>
       <c r="I57" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J57" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K57" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A58" s="6" t="str">
+        <f t="shared" si="9"/>
         <v>/memberShop/loginShopPro.do=com.mvc.action.membershop.loginShopProAction</v>
       </c>
       <c r="B58" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/memberShop/loginShopPro.do=com.mvc.action.membershop.loginShopProAction</v>
       </c>
       <c r="D58" s="2">
@@ -2811,25 +2829,25 @@
         <v>30</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>loginShopProAction</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>loginShopProAction</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>com.mvc.action.membershop.loginShopProAction</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A59" s="6" t="str">
+        <f t="shared" si="9"/>
         <v>/memberShop/MyPageShop.do=com.mvc.action.membershop.MyPageShopAction</v>
       </c>
       <c r="B59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/memberShop/MyPageShop.do=com.mvc.action.membershop.MyPageShopAction</v>
       </c>
       <c r="D59" s="2">
@@ -2850,25 +2868,25 @@
         <v>30</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>MyPageShopAction</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>MyPageShopAction</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>com.mvc.action.membershop.MyPageShopAction</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A60" s="6" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B60" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D60" s="2" t="str">
@@ -2880,25 +2898,25 @@
         <v/>
       </c>
       <c r="I60" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J60" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K60" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A61" s="6" t="str">
+        <f t="shared" si="9"/>
         <v>/sw_css/admintopnav.do=com.mvc.action.sw_css.admintopnavAction</v>
       </c>
       <c r="B61" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/sw_css/admintopnav.do=com.mvc.action.sw_css.admintopnavAction</v>
       </c>
       <c r="D61" s="2">
@@ -2919,25 +2937,25 @@
         <v>88</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>admintopnavAction</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>admintopnavAction</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>com.mvc.action.sw_css.admintopnavAction</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A62" s="6" t="str">
+        <f t="shared" si="9"/>
         <v>/sw_css/memberTopNav.do=com.mvc.action.sw_css.memberTopNavAction</v>
       </c>
       <c r="B62" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/sw_css/memberTopNav.do=com.mvc.action.sw_css.memberTopNavAction</v>
       </c>
       <c r="D62" s="2">
@@ -2958,25 +2976,25 @@
         <v>88</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>memberTopNavAction</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>memberTopNavAction</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>com.mvc.action.sw_css.memberTopNavAction</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A63" s="6" t="str">
+        <f t="shared" si="9"/>
         <v>/sw_css/topnav.do=com.mvc.action.sw_css.topnavAction</v>
       </c>
       <c r="B63" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/sw_css/topnav.do=com.mvc.action.sw_css.topnavAction</v>
       </c>
       <c r="D63" s="2">
@@ -2997,25 +3015,25 @@
         <v>88</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>topnavAction</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>topnavAction</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>com.mvc.action.sw_css.topnavAction</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A64" s="6" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B64" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D64" s="2" t="str">
@@ -3027,25 +3045,25 @@
         <v/>
       </c>
       <c r="I64" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J64" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K64" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A65" s="6" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B65" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D65" s="2" t="str">
@@ -3057,25 +3075,25 @@
         <v/>
       </c>
       <c r="I65" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J65" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K65" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A66" s="6" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B66" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D66" s="2" t="str">
@@ -3087,25 +3105,25 @@
         <v/>
       </c>
       <c r="I66" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J66" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K66" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="A67" s="6" t="str">
+        <f t="shared" si="9"/>
         <v>/notice/NoticeList.do=com.mvc.action.notice.NoticeListAction</v>
       </c>
       <c r="B67" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/notice/NoticeList.do=com.mvc.action.notice.NoticeListAction</v>
       </c>
       <c r="D67" s="2">
@@ -3126,25 +3144,25 @@
         <v>21</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>NoticeListAction</v>
       </c>
       <c r="J67" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NoticeListAction</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>com.mvc.action.notice.NoticeListAction</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="str">
-        <f t="shared" ref="A68:A104" si="9">IF(   LEN(B68)&lt;3,"",B68)</f>
+      <c r="A68" s="6" t="str">
+        <f t="shared" ref="A68:A104" si="14">IF(   LEN(B68)&lt;3,"",B68)</f>
         <v>/notice/NoticeView.do=com.mvc.action.notice.NoticeViewAction</v>
       </c>
       <c r="B68" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/notice/NoticeView.do=com.mvc.action.notice.NoticeViewAction</v>
       </c>
       <c r="D68" s="2">
@@ -3158,32 +3176,32 @@
         <v>17</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G68:G104" si="15">SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(E68),"/",TRIM(F68)),".jsp",".do",1),"//","",1)</f>
         <v>/notice/NoticeView.do</v>
       </c>
       <c r="H68" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>NoticeViewAction</v>
       </c>
       <c r="J68" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NoticeViewAction</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f t="shared" ref="K68:K104" si="10">IF(J68="","",SUBSTITUTE(CONCATENATE(H68,".",J68),"..",   ".",1))</f>
+        <f t="shared" ref="K68:K104" si="16">IF(J68="","",SUBSTITUTE(CONCATENATE(H68,".",J68),"..",   ".",1))</f>
         <v>com.mvc.action.notice.NoticeViewAction</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A69" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B69" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D69" s="2" t="str">
@@ -3191,29 +3209,29 @@
         <v/>
       </c>
       <c r="G69" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I69" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J69" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K69" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A70" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/NoticeView.do=com.mvc.action.shop.NoticeViewAction</v>
       </c>
       <c r="B70" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/NoticeView.do=com.mvc.action.shop.NoticeViewAction</v>
       </c>
       <c r="D70" s="2">
@@ -3227,32 +3245,32 @@
         <v>79</v>
       </c>
       <c r="G70" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/NoticeView.do</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>NoticeViewAction</v>
       </c>
       <c r="J70" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NoticeViewAction</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.NoticeViewAction</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A71" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/NoticeList.do=com.mvc.action.shop.NoticeListAction</v>
       </c>
       <c r="B71" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/NoticeList.do=com.mvc.action.shop.NoticeListAction</v>
       </c>
       <c r="D71" s="2">
@@ -3266,32 +3284,32 @@
         <v>50</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/NoticeList.do</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>NoticeListAction</v>
       </c>
       <c r="J71" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NoticeListAction</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.NoticeListAction</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A72" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/MenuStatusPro.do=com.mvc.action.shop.MenuStatusProAction</v>
       </c>
       <c r="B72" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/MenuStatusPro.do=com.mvc.action.shop.MenuStatusProAction</v>
       </c>
       <c r="D72" s="2">
@@ -3305,32 +3323,32 @@
         <v>78</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/MenuStatusPro.do</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>MenuStatusProAction</v>
       </c>
       <c r="J72" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>MenuStatusProAction</v>
       </c>
       <c r="K72" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.MenuStatusProAction</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A73" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/AddMenuPro.do=com.mvc.action.shop.AddMenuProAction</v>
       </c>
       <c r="B73" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/AddMenuPro.do=com.mvc.action.shop.AddMenuProAction</v>
       </c>
       <c r="D73" s="2">
@@ -3344,32 +3362,32 @@
         <v>75</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/AddMenuPro.do</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>AddMenuProAction</v>
       </c>
       <c r="J73" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>AddMenuProAction</v>
       </c>
       <c r="K73" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.AddMenuProAction</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A74" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/CancelList.do=com.mvc.action.shop.CancelListAction</v>
       </c>
       <c r="B74" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/CancelList.do=com.mvc.action.shop.CancelListAction</v>
       </c>
       <c r="D74" s="2">
@@ -3383,32 +3401,32 @@
         <v>77</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/CancelList.do</v>
       </c>
       <c r="H74" t="s">
         <v>29</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CancelListAction</v>
       </c>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>CancelListAction</v>
       </c>
       <c r="K74" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.CancelListAction</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A75" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/BaesongList.do=com.mvc.action.shop.BaesongListAction</v>
       </c>
       <c r="B75" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/BaesongList.do=com.mvc.action.shop.BaesongListAction</v>
       </c>
       <c r="D75" s="2">
@@ -3422,32 +3440,32 @@
         <v>32</v>
       </c>
       <c r="G75" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/BaesongList.do</v>
       </c>
       <c r="H75" t="s">
         <v>29</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f t="shared" ref="I75:I104" si="11">SUBSTITUTE(F75,".jsp","Action",1)</f>
+        <f t="shared" ref="I75:I104" si="17">SUBSTITUTE(F75,".jsp","Action",1)</f>
         <v>BaesongListAction</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>BaesongListAction</v>
       </c>
       <c r="K75" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.BaesongListAction</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A76" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/BaesongSelect.do=com.mvc.action.shop.BaesongSelectAction</v>
       </c>
       <c r="B76" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/BaesongSelect.do=com.mvc.action.shop.BaesongSelectAction</v>
       </c>
       <c r="D76" s="2">
@@ -3461,32 +3479,32 @@
         <v>34</v>
       </c>
       <c r="G76" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/BaesongSelect.do</v>
       </c>
       <c r="H76" t="s">
         <v>29</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>BaesongSelectAction</v>
       </c>
       <c r="J76" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>BaesongSelectAction</v>
       </c>
       <c r="K76" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.BaesongSelectAction</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A77" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/ShopManage.do=com.mvc.action.shop.ShopManageAction</v>
       </c>
       <c r="B77" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/ShopManage.do=com.mvc.action.shop.ShopManageAction</v>
       </c>
       <c r="D77" s="2">
@@ -3500,32 +3518,32 @@
         <v>82</v>
       </c>
       <c r="G77" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/ShopManage.do</v>
       </c>
       <c r="H77" t="s">
         <v>29</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>ShopManageAction</v>
       </c>
       <c r="J77" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>ShopManageAction</v>
       </c>
       <c r="K77" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.ShopManageAction</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A78" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/ShopOpenPro.do=com.mvc.action.shop.ShopOpenProAction</v>
       </c>
       <c r="B78" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/ShopOpenPro.do=com.mvc.action.shop.ShopOpenProAction</v>
       </c>
       <c r="D78" s="2">
@@ -3539,32 +3557,32 @@
         <v>83</v>
       </c>
       <c r="G78" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/ShopOpenPro.do</v>
       </c>
       <c r="H78" t="s">
         <v>29</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>ShopOpenProAction</v>
       </c>
       <c r="J78" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>ShopOpenProAction</v>
       </c>
       <c r="K78" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.ShopOpenProAction</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A79" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/CancelOrderPro.do=com.mvc.action.shop.CancelOrderProAction</v>
       </c>
       <c r="B79" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/CancelOrderPro.do=com.mvc.action.shop.CancelOrderProAction</v>
       </c>
       <c r="D79" s="2">
@@ -3578,32 +3596,32 @@
         <v>33</v>
       </c>
       <c r="G79" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/CancelOrderPro.do</v>
       </c>
       <c r="H79" t="s">
         <v>29</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>CancelOrderProAction</v>
       </c>
       <c r="J79" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>CancelOrderProAction</v>
       </c>
       <c r="K79" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.CancelOrderProAction</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A80" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/CheckNewOrder.do=com.mvc.action.shop.CheckNewOrderAction</v>
       </c>
       <c r="B80" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/CheckNewOrder.do=com.mvc.action.shop.CheckNewOrderAction</v>
       </c>
       <c r="D80" s="2">
@@ -3617,32 +3635,32 @@
         <v>36</v>
       </c>
       <c r="G80" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/CheckNewOrder.do</v>
       </c>
       <c r="H80" t="s">
         <v>29</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>CheckNewOrderAction</v>
       </c>
       <c r="J80" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>CheckNewOrderAction</v>
       </c>
       <c r="K80" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.CheckNewOrderAction</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A81" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/CheckOrderPro.do=com.mvc.action.shop.CheckOrderProAction</v>
       </c>
       <c r="B81" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/CheckOrderPro.do=com.mvc.action.shop.CheckOrderProAction</v>
       </c>
       <c r="D81" s="2">
@@ -3656,32 +3674,32 @@
         <v>35</v>
       </c>
       <c r="G81" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/CheckOrderPro.do</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>CheckOrderProAction</v>
       </c>
       <c r="J81" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>CheckOrderProAction</v>
       </c>
       <c r="K81" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.CheckOrderProAction</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A82" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/EndList.do=com.mvc.action.shop.EndListAction</v>
       </c>
       <c r="B82" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/EndList.do=com.mvc.action.shop.EndListAction</v>
       </c>
       <c r="D82" s="2">
@@ -3695,32 +3713,32 @@
         <v>37</v>
       </c>
       <c r="G82" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/EndList.do</v>
       </c>
       <c r="H82" t="s">
         <v>29</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>EndListAction</v>
       </c>
       <c r="J82" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>EndListAction</v>
       </c>
       <c r="K82" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.EndListAction</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A83" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/Main.do=com.mvc.action.shop.MainAction</v>
       </c>
       <c r="B83" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/Main.do=com.mvc.action.shop.MainAction</v>
       </c>
       <c r="D83" s="2">
@@ -3734,32 +3752,32 @@
         <v>20</v>
       </c>
       <c r="G83" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/Main.do</v>
       </c>
       <c r="H83" t="s">
         <v>29</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>MainAction</v>
       </c>
       <c r="J83" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>MainAction</v>
       </c>
       <c r="K83" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.MainAction</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A84" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/NewOrderList.do=com.mvc.action.shop.NewOrderListAction</v>
       </c>
       <c r="B84" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/NewOrderList.do=com.mvc.action.shop.NewOrderListAction</v>
       </c>
       <c r="D84" s="2">
@@ -3773,32 +3791,32 @@
         <v>38</v>
       </c>
       <c r="G84" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/NewOrderList.do</v>
       </c>
       <c r="H84" t="s">
         <v>29</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>NewOrderListAction</v>
       </c>
       <c r="J84" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NewOrderListAction</v>
       </c>
       <c r="K84" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.NewOrderListAction</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A85" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/Reload.do=com.mvc.action.shop.ReloadAction</v>
       </c>
       <c r="B85" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/Reload.do=com.mvc.action.shop.ReloadAction</v>
       </c>
       <c r="D85" s="2">
@@ -3812,32 +3830,32 @@
         <v>80</v>
       </c>
       <c r="G85" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/Reload.do</v>
       </c>
       <c r="H85" t="s">
         <v>29</v>
       </c>
       <c r="I85" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>ReloadAction</v>
       </c>
       <c r="J85" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>ReloadAction</v>
       </c>
       <c r="K85" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.ReloadAction</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A86" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/shop/reviewList.do=com.mvc.action.shop.reviewListAction</v>
       </c>
       <c r="B86" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/shop/reviewList.do=com.mvc.action.shop.reviewListAction</v>
       </c>
       <c r="D86" s="2">
@@ -3851,32 +3869,32 @@
         <v>81</v>
       </c>
       <c r="G86" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/shop/reviewList.do</v>
       </c>
       <c r="H86" t="s">
         <v>29</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>reviewListAction</v>
       </c>
       <c r="J86" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>reviewListAction</v>
       </c>
       <c r="K86" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.shop.reviewListAction</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A87" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/util/logout.do=com.mvc.action.util.logoutAction</v>
       </c>
       <c r="B87" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/util/logout.do=com.mvc.action.util.logoutAction</v>
       </c>
       <c r="D87" s="2">
@@ -3890,102 +3908,108 @@
         <v>43</v>
       </c>
       <c r="G87" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/util/logout.do</v>
       </c>
       <c r="H87" t="s">
         <v>45</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>logoutAction</v>
       </c>
       <c r="J87" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>logoutAction</v>
       </c>
       <c r="K87" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.util.logoutAction</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A88" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B88" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="G88" s="4"/>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="4"/>
       <c r="K88" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A89" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B89" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D89" s="2"/>
-      <c r="G89" s="4"/>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="4"/>
       <c r="K89" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A90" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B90" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f t="shared" ref="D90:D98" si="12">IF(E90="","",IF(NOT(E89=E90),1,D89+1))</f>
+        <f t="shared" ref="D90:D98" si="18">IF(E90="","",IF(NOT(E89=E90),1,D89+1))</f>
         <v/>
       </c>
       <c r="G90" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I90" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J90" s="4" t="str">
-        <f t="shared" ref="J90:J104" si="13">IF(I90="","",CONCATENATE(I90,".java"))</f>
+        <f t="shared" ref="J90:J104" si="19">IF(I90="","",CONCATENATE(I90,".java"))</f>
         <v/>
       </c>
       <c r="K90" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A91" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/joinClient/idCheck.do=com.mvc.action.joinClient.idCheckAction.java</v>
       </c>
       <c r="B91" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/joinClient/idCheck.do=com.mvc.action.joinClient.idCheckAction.java</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E91" t="s">
@@ -3995,36 +4019,36 @@
         <v>58</v>
       </c>
       <c r="G91" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/joinClient/idCheck.do</v>
       </c>
       <c r="H91" t="s">
         <v>62</v>
       </c>
       <c r="I91" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>idCheckAction</v>
       </c>
       <c r="J91" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>idCheckAction.java</v>
       </c>
       <c r="K91" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.joinClient.idCheckAction.java</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A92" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/joinClient/joinClientPro.do=com.mvc.action.joinClient.joinClientProAction.java</v>
       </c>
       <c r="B92" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/joinClient/joinClientPro.do=com.mvc.action.joinClient.joinClientProAction.java</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E92" t="s">
@@ -4034,36 +4058,36 @@
         <v>59</v>
       </c>
       <c r="G92" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/joinClient/joinClientPro.do</v>
       </c>
       <c r="H92" t="s">
         <v>62</v>
       </c>
       <c r="I92" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>joinClientProAction</v>
       </c>
       <c r="J92" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>joinClientProAction.java</v>
       </c>
       <c r="K92" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.joinClient.joinClientProAction.java</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A93" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/joinClient/JoinFormCilent.do=com.mvc.action.joinClient.JoinFormCilentAction.java</v>
       </c>
       <c r="B93" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/joinClient/JoinFormCilent.do=com.mvc.action.joinClient.JoinFormCilentAction.java</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E93" t="s">
@@ -4073,36 +4097,36 @@
         <v>60</v>
       </c>
       <c r="G93" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/joinClient/JoinFormCilent.do</v>
       </c>
       <c r="H93" t="s">
         <v>62</v>
       </c>
       <c r="I93" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>JoinFormCilentAction</v>
       </c>
       <c r="J93" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>JoinFormCilentAction.java</v>
       </c>
       <c r="K93" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.joinClient.JoinFormCilentAction.java</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A94" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/joinClient/loginClientPro.do=com.mvc.action.joinClient.loginClientProAction.java</v>
       </c>
       <c r="B94" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/joinClient/loginClientPro.do=com.mvc.action.joinClient.loginClientProAction.java</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="E94" t="s">
@@ -4112,156 +4136,156 @@
         <v>61</v>
       </c>
       <c r="G94" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/joinClient/loginClientPro.do</v>
       </c>
       <c r="H94" t="s">
         <v>62</v>
       </c>
       <c r="I94" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>loginClientProAction</v>
       </c>
       <c r="J94" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>loginClientProAction.java</v>
       </c>
       <c r="K94" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.joinClient.loginClientProAction.java</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A95" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B95" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G95" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I95" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J95" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K95" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A96" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B96" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G96" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I96" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J96" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K96" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A97" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B97" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G97" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I97" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J97" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K97" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A98" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B98" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D98" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G98" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I98" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J98" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K98" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A99" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/joinShop/idCheck.do=com.mvc.action.joinShop.idCheckAction.java</v>
       </c>
       <c r="B99" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/joinShop/idCheck.do=com.mvc.action.joinShop.idCheckAction.java</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" ref="D99:D104" si="14">IF(E99="","",IF(NOT(E98=E99),1,D98+1))</f>
+        <f t="shared" ref="D99:D104" si="20">IF(E99="","",IF(NOT(E98=E99),1,D98+1))</f>
         <v>1</v>
       </c>
       <c r="E99" t="s">
@@ -4271,36 +4295,36 @@
         <v>57</v>
       </c>
       <c r="G99" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/joinShop/idCheck.do</v>
       </c>
       <c r="H99" t="s">
         <v>67</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>idCheckAction</v>
       </c>
       <c r="J99" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>idCheckAction.java</v>
       </c>
       <c r="K99" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.joinShop.idCheckAction.java</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A100" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/joinShop/JoinFormShop.do=com.mvc.action.joinShop.JoinFormShopAction.java</v>
       </c>
       <c r="B100" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/joinShop/JoinFormShop.do=com.mvc.action.joinShop.JoinFormShopAction.java</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E100" t="s">
@@ -4310,36 +4334,36 @@
         <v>64</v>
       </c>
       <c r="G100" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/joinShop/JoinFormShop.do</v>
       </c>
       <c r="H100" t="s">
         <v>67</v>
       </c>
       <c r="I100" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>JoinFormShopAction</v>
       </c>
       <c r="J100" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>JoinFormShopAction.java</v>
       </c>
       <c r="K100" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.joinShop.JoinFormShopAction.java</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A101" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/joinShop/joinShopPro.do=com.mvc.action.joinShop.joinShopProAction.java</v>
       </c>
       <c r="B101" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/joinShop/joinShopPro.do=com.mvc.action.joinShop.joinShopProAction.java</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="E101" t="s">
@@ -4349,36 +4373,36 @@
         <v>65</v>
       </c>
       <c r="G101" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/joinShop/joinShopPro.do</v>
       </c>
       <c r="H101" t="s">
         <v>67</v>
       </c>
       <c r="I101" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>joinShopProAction</v>
       </c>
       <c r="J101" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>joinShopProAction.java</v>
       </c>
       <c r="K101" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.joinShop.joinShopProAction.java</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A102" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>/joinShop/loginShopPro.do=com.mvc.action.joinShop.loginShopProAction.java</v>
       </c>
       <c r="B102" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>/joinShop/loginShopPro.do=com.mvc.action.joinShop.loginShopProAction.java</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="E102" t="s">
@@ -4388,82 +4412,82 @@
         <v>66</v>
       </c>
       <c r="G102" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>/joinShop/loginShopPro.do</v>
       </c>
       <c r="H102" t="s">
         <v>67</v>
       </c>
       <c r="I102" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>loginShopProAction</v>
       </c>
       <c r="J102" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>loginShopProAction.java</v>
       </c>
       <c r="K102" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>com.mvc.action.joinShop.loginShopProAction.java</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="A103" s="6" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B103" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>=</v>
       </c>
       <c r="D103" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I103" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J103" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K103" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="G103" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I103" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J103" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K103" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="B104" s="5" t="str">
-        <f t="shared" ref="B104" si="15">CONCATENATE(G104,"=",K104)</f>
+        <f t="shared" ref="B104" si="21">CONCATENATE(G104,"=",K104)</f>
         <v>=</v>
       </c>
       <c r="D104" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G104" s="4" t="str">
-        <f t="shared" ref="G104" si="16">SUBSTITUTE(SUBSTITUTE(CONCATENATE("/",TRIM(E104),"/",TRIM(F104)),".jsp",".do",1),"//","",1)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I104" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J104" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K104" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
